--- a/Data/Modeling Stage/Results/R_Gonz/Non temporal models/simple_models_results_Date_threshold_100_1_replicas.xlsx
+++ b/Data/Modeling Stage/Results/R_Gonz/Non temporal models/simple_models_results_Date_threshold_100_1_replicas.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="174">
+  <si>
+    <t>Baseline - Majority Class</t>
+  </si>
   <si>
     <t>KNN</t>
   </si>
@@ -41,9 +44,6 @@
     <t>SVM</t>
   </si>
   <si>
-    <t>Baseline - Majority Class</t>
-  </si>
-  <si>
     <t>Train Accuracy (F1 Score micro)</t>
   </si>
   <si>
@@ -74,25 +74,40 @@
     <t>Time</t>
   </si>
   <si>
+    <t>0.619+/-0.0</t>
+  </si>
+  <si>
+    <t>0.619</t>
+  </si>
+  <si>
+    <t>0.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0.001+/-0.0</t>
+  </si>
+  <si>
     <t>1.0+/-0.0</t>
   </si>
   <si>
-    <t>0.883+/-0.0</t>
-  </si>
-  <si>
-    <t>0.882</t>
-  </si>
-  <si>
-    <t>0.904+/-0.009</t>
-  </si>
-  <si>
-    <t>0.901</t>
-  </si>
-  <si>
-    <t>0.776+/-0.02</t>
-  </si>
-  <si>
-    <t>0.777</t>
+    <t>0.881+/-0.0</t>
+  </si>
+  <si>
+    <t>0.883</t>
+  </si>
+  <si>
+    <t>0.899+/-0.009</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>0.773+/-0.02</t>
+  </si>
+  <si>
+    <t>0.778</t>
   </si>
   <si>
     <t>0.003+/-0.0</t>
@@ -101,7 +116,7 @@
     <t>0.908+/-0.001</t>
   </si>
   <si>
-    <t>0.907+/-0.0</t>
+    <t>0.906+/-0.0</t>
   </si>
   <si>
     <t>0.903</t>
@@ -110,217 +125,223 @@
     <t>0.907+/-0.001</t>
   </si>
   <si>
-    <t>0.906+/-0.012</t>
+    <t>0.904+/-0.011</t>
   </si>
   <si>
     <t>0.895</t>
   </si>
   <si>
-    <t>0.846+/-0.002</t>
-  </si>
-  <si>
-    <t>0.845+/-0.021</t>
+    <t>0.847+/-0.002</t>
+  </si>
+  <si>
+    <t>0.844+/-0.022</t>
   </si>
   <si>
     <t>0.844</t>
   </si>
   <si>
-    <t>0.327+/-0.037</t>
-  </si>
-  <si>
-    <t>0.679+/-0.02</t>
-  </si>
-  <si>
-    <t>0.677+/-0.0</t>
-  </si>
-  <si>
-    <t>0.679</t>
-  </si>
-  <si>
-    <t>0.55+/-0.019</t>
-  </si>
-  <si>
-    <t>0.549+/-0.023</t>
-  </si>
-  <si>
-    <t>0.549</t>
-  </si>
-  <si>
-    <t>0.876+/-0.003</t>
-  </si>
-  <si>
-    <t>0.875+/-0.018</t>
-  </si>
-  <si>
-    <t>0.878</t>
+    <t>0.494+/-0.04</t>
+  </si>
+  <si>
+    <t>0.661+/-0.021</t>
+  </si>
+  <si>
+    <t>0.66+/-0.0</t>
+  </si>
+  <si>
+    <t>0.662</t>
+  </si>
+  <si>
+    <t>0.534+/-0.019</t>
+  </si>
+  <si>
+    <t>0.534+/-0.021</t>
+  </si>
+  <si>
+    <t>0.534</t>
+  </si>
+  <si>
+    <t>0.875+/-0.003</t>
+  </si>
+  <si>
+    <t>0.874+/-0.019</t>
+  </si>
+  <si>
+    <t>0.876</t>
   </si>
   <si>
     <t>0.008+/-0.001</t>
   </si>
   <si>
-    <t>0.875+/-0.001</t>
-  </si>
-  <si>
-    <t>0.875+/-0.0</t>
-  </si>
-  <si>
-    <t>0.876</t>
+    <t>0.873+/-0.001</t>
+  </si>
+  <si>
+    <t>0.873+/-0.0</t>
+  </si>
+  <si>
+    <t>0.872</t>
   </si>
   <si>
     <t>0.831+/-0.001</t>
   </si>
   <si>
-    <t>0.831+/-0.007</t>
-  </si>
-  <si>
-    <t>0.833</t>
-  </si>
-  <si>
-    <t>0.844+/-0.003</t>
-  </si>
-  <si>
-    <t>0.844+/-0.019</t>
-  </si>
-  <si>
-    <t>0.009+/-0.001</t>
-  </si>
-  <si>
-    <t>0.961+/-0.003</t>
-  </si>
-  <si>
-    <t>0.931+/-0.0</t>
-  </si>
-  <si>
-    <t>0.943</t>
-  </si>
-  <si>
-    <t>0.948+/-0.008</t>
-  </si>
-  <si>
-    <t>0.908+/-0.017</t>
-  </si>
-  <si>
-    <t>0.932</t>
-  </si>
-  <si>
-    <t>0.949+/-0.013</t>
-  </si>
-  <si>
-    <t>0.912+/-0.023</t>
-  </si>
-  <si>
-    <t>0.916</t>
-  </si>
-  <si>
-    <t>3.79+/-0.614</t>
+    <t>0.831+/-0.006</t>
+  </si>
+  <si>
+    <t>0.831</t>
+  </si>
+  <si>
+    <t>0.837+/-0.003</t>
+  </si>
+  <si>
+    <t>0.837+/-0.016</t>
+  </si>
+  <si>
+    <t>0.834</t>
+  </si>
+  <si>
+    <t>0.01+/-0.001</t>
+  </si>
+  <si>
+    <t>0.959+/-0.003</t>
+  </si>
+  <si>
+    <t>0.935+/-0.0</t>
+  </si>
+  <si>
+    <t>0.931</t>
+  </si>
+  <si>
+    <t>0.952+/-0.008</t>
+  </si>
+  <si>
+    <t>0.92+/-0.014</t>
+  </si>
+  <si>
+    <t>0.921</t>
+  </si>
+  <si>
+    <t>0.941+/-0.009</t>
+  </si>
+  <si>
+    <t>0.909+/-0.011</t>
+  </si>
+  <si>
+    <t>3.365+/-0.603</t>
   </si>
   <si>
     <t>0.978+/-0.001</t>
   </si>
   <si>
-    <t>0.937+/-0.0</t>
-  </si>
-  <si>
-    <t>0.938</t>
+    <t>0.938+/-0.0</t>
+  </si>
+  <si>
+    <t>0.939</t>
   </si>
   <si>
     <t>0.97+/-0.003</t>
   </si>
   <si>
-    <t>0.916+/-0.012</t>
-  </si>
-  <si>
-    <t>0.912</t>
-  </si>
-  <si>
-    <t>0.971+/-0.004</t>
-  </si>
-  <si>
-    <t>0.92+/-0.01</t>
+    <t>0.917+/-0.013</t>
+  </si>
+  <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>0.972+/-0.004</t>
+  </si>
+  <si>
+    <t>0.92+/-0.008</t>
+  </si>
+  <si>
+    <t>0.175+/-0.011</t>
+  </si>
+  <si>
+    <t>0.976+/-0.002</t>
+  </si>
+  <si>
+    <t>0.933+/-0.0</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>0.977+/-0.004</t>
+  </si>
+  <si>
+    <t>0.919+/-0.013</t>
   </si>
   <si>
     <t>0.927</t>
   </si>
   <si>
-    <t>0.182+/-0.019</t>
-  </si>
-  <si>
-    <t>0.976+/-0.002</t>
-  </si>
-  <si>
-    <t>0.934+/-0.0</t>
-  </si>
-  <si>
-    <t>0.935</t>
-  </si>
-  <si>
-    <t>0.976+/-0.005</t>
-  </si>
-  <si>
-    <t>0.92+/-0.011</t>
-  </si>
-  <si>
-    <t>0.92</t>
-  </si>
-  <si>
-    <t>0.96+/-0.006</t>
-  </si>
-  <si>
-    <t>0.907+/-0.013</t>
-  </si>
-  <si>
-    <t>0.909</t>
-  </si>
-  <si>
-    <t>0.19+/-0.016</t>
+    <t>0.96+/-0.005</t>
+  </si>
+  <si>
+    <t>0.905+/-0.015</t>
+  </si>
+  <si>
+    <t>0.915</t>
+  </si>
+  <si>
+    <t>0.194+/-0.009</t>
   </si>
   <si>
     <t>0.936+/-0.001</t>
   </si>
   <si>
-    <t>0.919+/-0.0</t>
-  </si>
-  <si>
-    <t>0.94+/-0.001</t>
-  </si>
-  <si>
-    <t>0.925+/-0.014</t>
-  </si>
-  <si>
-    <t>0.928</t>
-  </si>
-  <si>
-    <t>0.888+/-0.002</t>
-  </si>
-  <si>
-    <t>0.857+/-0.013</t>
-  </si>
-  <si>
-    <t>0.845</t>
-  </si>
-  <si>
-    <t>14.679+/-2.18</t>
-  </si>
-  <si>
-    <t>0.893+/-0.0</t>
-  </si>
-  <si>
-    <t>0.898</t>
-  </si>
-  <si>
-    <t>0.819+/-0.013</t>
-  </si>
-  <si>
-    <t>0.825</t>
-  </si>
-  <si>
-    <t>0.595+/-0.027</t>
-  </si>
-  <si>
-    <t>0.618</t>
-  </si>
-  <si>
-    <t>0.003+/-0.001</t>
+    <t>0.92+/-0.0</t>
+  </si>
+  <si>
+    <t>0.914</t>
+  </si>
+  <si>
+    <t>0.941+/-0.001</t>
+  </si>
+  <si>
+    <t>0.927+/-0.013</t>
+  </si>
+  <si>
+    <t>0.925</t>
+  </si>
+  <si>
+    <t>0.887+/-0.002</t>
+  </si>
+  <si>
+    <t>0.857+/-0.012</t>
+  </si>
+  <si>
+    <t>0.843</t>
+  </si>
+  <si>
+    <t>14.503+/-0.326</t>
+  </si>
+  <si>
+    <t>0.801+/-0.0</t>
+  </si>
+  <si>
+    <t>0.802</t>
+  </si>
+  <si>
+    <t>0.89+/-0.0</t>
+  </si>
+  <si>
+    <t>0.892</t>
+  </si>
+  <si>
+    <t>0.82+/-0.02</t>
+  </si>
+  <si>
+    <t>0.818</t>
+  </si>
+  <si>
+    <t>0.574+/-0.029</t>
+  </si>
+  <si>
+    <t>0.587</t>
+  </si>
+  <si>
+    <t>0.002+/-0.0</t>
   </si>
   <si>
     <t>0.972+/-0.001</t>
@@ -329,196 +350,193 @@
     <t>0.971+/-0.0</t>
   </si>
   <si>
-    <t>0.971</t>
-  </si>
-  <si>
-    <t>0.941+/-0.001</t>
-  </si>
-  <si>
-    <t>0.939+/-0.012</t>
-  </si>
-  <si>
-    <t>0.947</t>
-  </si>
-  <si>
-    <t>0.915+/-0.002</t>
-  </si>
-  <si>
-    <t>0.911+/-0.025</t>
-  </si>
-  <si>
-    <t>0.904</t>
-  </si>
-  <si>
-    <t>0.345+/-0.136</t>
-  </si>
-  <si>
-    <t>0.874+/-0.012</t>
-  </si>
-  <si>
-    <t>0.883</t>
-  </si>
-  <si>
-    <t>0.697+/-0.021</t>
-  </si>
-  <si>
-    <t>0.696+/-0.038</t>
-  </si>
-  <si>
-    <t>0.728</t>
-  </si>
-  <si>
-    <t>0.647+/-0.062</t>
-  </si>
-  <si>
-    <t>0.652+/-0.073</t>
-  </si>
-  <si>
-    <t>0.656</t>
-  </si>
-  <si>
-    <t>0.753+/-0.002</t>
-  </si>
-  <si>
-    <t>0.75+/-0.0</t>
-  </si>
-  <si>
-    <t>0.75</t>
-  </si>
-  <si>
-    <t>0.361+/-0.003</t>
-  </si>
-  <si>
-    <t>0.355+/-0.027</t>
-  </si>
-  <si>
-    <t>0.353</t>
-  </si>
-  <si>
-    <t>0.319+/-0.014</t>
-  </si>
-  <si>
-    <t>0.315+/-0.027</t>
-  </si>
-  <si>
-    <t>0.309</t>
-  </si>
-  <si>
-    <t>0.009+/-0.002</t>
-  </si>
-  <si>
-    <t>0.981+/-0.003</t>
-  </si>
-  <si>
-    <t>0.97+/-0.0</t>
-  </si>
-  <si>
-    <t>0.974</t>
-  </si>
-  <si>
-    <t>0.949+/-0.018</t>
-  </si>
-  <si>
-    <t>0.923+/-0.03</t>
-  </si>
-  <si>
-    <t>0.976</t>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>0.942+/-0.001</t>
+  </si>
+  <si>
+    <t>0.941+/-0.012</t>
+  </si>
+  <si>
+    <t>0.945</t>
+  </si>
+  <si>
+    <t>0.915+/-0.003</t>
+  </si>
+  <si>
+    <t>0.91+/-0.027</t>
+  </si>
+  <si>
+    <t>0.325+/-0.033</t>
+  </si>
+  <si>
+    <t>0.884+/-0.005</t>
+  </si>
+  <si>
+    <t>0.882+/-0.0</t>
+  </si>
+  <si>
+    <t>0.897</t>
+  </si>
+  <si>
+    <t>0.694+/-0.01</t>
+  </si>
+  <si>
+    <t>0.69+/-0.028</t>
+  </si>
+  <si>
+    <t>0.722</t>
+  </si>
+  <si>
+    <t>0.746+/-0.034</t>
+  </si>
+  <si>
+    <t>0.737+/-0.052</t>
+  </si>
+  <si>
+    <t>0.784</t>
+  </si>
+  <si>
+    <t>0.008+/-0.0</t>
+  </si>
+  <si>
+    <t>0.758+/-0.002</t>
+  </si>
+  <si>
+    <t>0.758+/-0.0</t>
+  </si>
+  <si>
+    <t>0.758</t>
+  </si>
+  <si>
+    <t>0.372+/-0.003</t>
+  </si>
+  <si>
+    <t>0.37+/-0.02</t>
+  </si>
+  <si>
+    <t>0.367</t>
+  </si>
+  <si>
+    <t>0.315+/-0.011</t>
+  </si>
+  <si>
+    <t>0.313+/-0.027</t>
+  </si>
+  <si>
+    <t>0.304</t>
+  </si>
+  <si>
+    <t>0.009+/-0.0</t>
+  </si>
+  <si>
+    <t>0.983+/-0.002</t>
+  </si>
+  <si>
+    <t>0.978</t>
   </si>
   <si>
     <t>0.956+/-0.01</t>
   </si>
   <si>
-    <t>0.929+/-0.024</t>
-  </si>
-  <si>
-    <t>0.889</t>
-  </si>
-  <si>
-    <t>3.395+/-1.365</t>
+    <t>0.931+/-0.016</t>
+  </si>
+  <si>
+    <t>0.954</t>
+  </si>
+  <si>
+    <t>0.957+/-0.013</t>
+  </si>
+  <si>
+    <t>0.924+/-0.018</t>
+  </si>
+  <si>
+    <t>0.936</t>
+  </si>
+  <si>
+    <t>2.885+/-0.592</t>
   </si>
   <si>
     <t>0.996+/-0.0</t>
   </si>
   <si>
-    <t>0.979+/-0.0</t>
-  </si>
-  <si>
-    <t>0.978</t>
-  </si>
-  <si>
-    <t>0.989+/-0.002</t>
-  </si>
-  <si>
-    <t>0.946+/-0.015</t>
-  </si>
-  <si>
-    <t>0.992+/-0.001</t>
-  </si>
-  <si>
-    <t>0.947+/-0.02</t>
-  </si>
-  <si>
-    <t>0.942</t>
-  </si>
-  <si>
-    <t>0.133+/-0.019</t>
+    <t>0.98+/-0.0</t>
+  </si>
+  <si>
+    <t>0.982</t>
+  </si>
+  <si>
+    <t>0.988+/-0.002</t>
+  </si>
+  <si>
+    <t>0.948+/-0.018</t>
+  </si>
+  <si>
+    <t>0.991+/-0.001</t>
+  </si>
+  <si>
+    <t>0.951+/-0.014</t>
+  </si>
+  <si>
+    <t>0.953</t>
+  </si>
+  <si>
+    <t>0.152+/-0.02</t>
   </si>
   <si>
     <t>0.997+/-0.001</t>
   </si>
   <si>
-    <t>0.978+/-0.0</t>
-  </si>
-  <si>
-    <t>0.979</t>
+    <t>0.977</t>
   </si>
   <si>
     <t>0.992+/-0.003</t>
   </si>
   <si>
-    <t>0.943+/-0.012</t>
-  </si>
-  <si>
-    <t>0.95</t>
+    <t>0.946+/-0.01</t>
   </si>
   <si>
     <t>0.995+/-0.001</t>
   </si>
   <si>
-    <t>0.949+/-0.016</t>
-  </si>
-  <si>
-    <t>0.154+/-0.022</t>
-  </si>
-  <si>
-    <t>0.975+/-0.001</t>
-  </si>
-  <si>
-    <t>0.963+/-0.0</t>
-  </si>
-  <si>
-    <t>0.969</t>
-  </si>
-  <si>
-    <t>0.96+/-0.001</t>
-  </si>
-  <si>
-    <t>0.941+/-0.014</t>
-  </si>
-  <si>
-    <t>0.964</t>
-  </si>
-  <si>
-    <t>0.914+/-0.002</t>
-  </si>
-  <si>
-    <t>0.866+/-0.02</t>
-  </si>
-  <si>
-    <t>0.875</t>
-  </si>
-  <si>
-    <t>10.602+/-1.819</t>
+    <t>0.954+/-0.012</t>
+  </si>
+  <si>
+    <t>0.944</t>
+  </si>
+  <si>
+    <t>0.147+/-0.017</t>
+  </si>
+  <si>
+    <t>0.974+/-0.001</t>
+  </si>
+  <si>
+    <t>0.961+/-0.0</t>
+  </si>
+  <si>
+    <t>0.968</t>
+  </si>
+  <si>
+    <t>0.959+/-0.002</t>
+  </si>
+  <si>
+    <t>0.941+/-0.016</t>
+  </si>
+  <si>
+    <t>0.966</t>
+  </si>
+  <si>
+    <t>0.91+/-0.003</t>
+  </si>
+  <si>
+    <t>0.856+/-0.016</t>
+  </si>
+  <si>
+    <t>0.867</t>
+  </si>
+  <si>
+    <t>11.472+/-1.182</t>
   </si>
 </sst>
 </file>
@@ -919,28 +937,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2">
-        <v>0.6189445196211096</v>
+        <v>80</v>
+      </c>
+      <c r="J2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -948,31 +966,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I3" t="s">
-        <v>87</v>
-      </c>
-      <c r="J3">
-        <v>0.6189445196211096</v>
+        <v>81</v>
+      </c>
+      <c r="J3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -980,31 +998,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4">
-        <v>0.6190476190476191</v>
+        <v>82</v>
+      </c>
+      <c r="J4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1012,31 +1030,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I5" t="s">
-        <v>88</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
+        <v>83</v>
+      </c>
+      <c r="J5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1044,31 +1062,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I6" t="s">
-        <v>89</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1076,31 +1094,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1108,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
-      </c>
-      <c r="J8">
-        <v>0.6189445196211096</v>
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1140,31 +1158,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H9" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
-      </c>
-      <c r="J9">
-        <v>0.6189445196211096</v>
+        <v>87</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1172,31 +1190,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s">
         <v>64</v>
       </c>
-      <c r="G10" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" t="s">
-        <v>84</v>
-      </c>
       <c r="I10" t="s">
-        <v>93</v>
-      </c>
-      <c r="J10">
-        <v>0.6190476190476191</v>
+        <v>88</v>
+      </c>
+      <c r="J10" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1204,31 +1222,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H11" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s">
-        <v>94</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="J11" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1278,31 +1296,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I2" t="s">
-        <v>158</v>
-      </c>
-      <c r="J2">
-        <v>0.8014433919711321</v>
+        <v>156</v>
+      </c>
+      <c r="J2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1310,31 +1328,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G3" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="H3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I3" t="s">
-        <v>159</v>
-      </c>
-      <c r="J3">
-        <v>0.8014433919711321</v>
+        <v>148</v>
+      </c>
+      <c r="J3" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1342,31 +1360,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I4" t="s">
-        <v>160</v>
-      </c>
-      <c r="J4">
-        <v>0.8015873015873016</v>
+        <v>157</v>
+      </c>
+      <c r="J4" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1374,31 +1392,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I5" t="s">
-        <v>161</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="J5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1406,31 +1424,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I6" t="s">
-        <v>162</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
+        <v>159</v>
+      </c>
+      <c r="J6" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1438,31 +1456,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G7" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="H7" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="I7" t="s">
-        <v>163</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1470,31 +1488,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I8" t="s">
-        <v>164</v>
-      </c>
-      <c r="J8">
-        <v>0.8014433919711321</v>
+        <v>160</v>
+      </c>
+      <c r="J8" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1502,31 +1520,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I9" t="s">
-        <v>165</v>
-      </c>
-      <c r="J9">
-        <v>0.8014433919711321</v>
+        <v>161</v>
+      </c>
+      <c r="J9" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1534,31 +1552,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H10" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="I10" t="s">
-        <v>166</v>
-      </c>
-      <c r="J10">
-        <v>0.8015873015873016</v>
+        <v>162</v>
+      </c>
+      <c r="J10" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1566,31 +1584,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="E11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I11" t="s">
-        <v>167</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>163</v>
+      </c>
+      <c r="J11" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Results/R_Gonz/Non temporal models/simple_models_results_Date_threshold_100_1_replicas.xlsx
+++ b/Data/Modeling Stage/Results/R_Gonz/Non temporal models/simple_models_results_Date_threshold_100_1_replicas.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="172">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -92,451 +92,445 @@
     <t>1.0+/-0.0</t>
   </si>
   <si>
-    <t>0.881+/-0.0</t>
-  </si>
-  <si>
-    <t>0.883</t>
-  </si>
-  <si>
-    <t>0.899+/-0.009</t>
-  </si>
-  <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>0.773+/-0.02</t>
-  </si>
-  <si>
-    <t>0.778</t>
+    <t>0.883+/-0.0</t>
+  </si>
+  <si>
+    <t>0.882</t>
+  </si>
+  <si>
+    <t>0.904+/-0.009</t>
+  </si>
+  <si>
+    <t>0.901</t>
+  </si>
+  <si>
+    <t>0.776+/-0.02</t>
+  </si>
+  <si>
+    <t>0.777</t>
+  </si>
+  <si>
+    <t>0.004+/-0.0</t>
+  </si>
+  <si>
+    <t>0.908+/-0.001</t>
+  </si>
+  <si>
+    <t>0.907+/-0.0</t>
+  </si>
+  <si>
+    <t>0.903</t>
+  </si>
+  <si>
+    <t>0.907+/-0.001</t>
+  </si>
+  <si>
+    <t>0.906+/-0.012</t>
+  </si>
+  <si>
+    <t>0.895</t>
+  </si>
+  <si>
+    <t>0.846+/-0.002</t>
+  </si>
+  <si>
+    <t>0.845+/-0.021</t>
+  </si>
+  <si>
+    <t>0.844</t>
+  </si>
+  <si>
+    <t>0.449+/-0.068</t>
+  </si>
+  <si>
+    <t>0.679+/-0.02</t>
+  </si>
+  <si>
+    <t>0.677+/-0.0</t>
+  </si>
+  <si>
+    <t>0.679</t>
+  </si>
+  <si>
+    <t>0.55+/-0.019</t>
+  </si>
+  <si>
+    <t>0.549+/-0.023</t>
+  </si>
+  <si>
+    <t>0.549</t>
+  </si>
+  <si>
+    <t>0.876+/-0.003</t>
+  </si>
+  <si>
+    <t>0.875+/-0.018</t>
+  </si>
+  <si>
+    <t>0.878</t>
+  </si>
+  <si>
+    <t>0.01+/-0.001</t>
+  </si>
+  <si>
+    <t>0.875+/-0.001</t>
+  </si>
+  <si>
+    <t>0.875+/-0.0</t>
+  </si>
+  <si>
+    <t>0.876</t>
+  </si>
+  <si>
+    <t>0.831+/-0.001</t>
+  </si>
+  <si>
+    <t>0.831+/-0.007</t>
+  </si>
+  <si>
+    <t>0.833</t>
+  </si>
+  <si>
+    <t>0.844+/-0.003</t>
+  </si>
+  <si>
+    <t>0.844+/-0.019</t>
+  </si>
+  <si>
+    <t>0.012+/-0.002</t>
+  </si>
+  <si>
+    <t>0.959+/-0.004</t>
+  </si>
+  <si>
+    <t>0.935+/-0.0</t>
+  </si>
+  <si>
+    <t>0.936</t>
+  </si>
+  <si>
+    <t>0.942+/-0.013</t>
+  </si>
+  <si>
+    <t>0.912+/-0.018</t>
+  </si>
+  <si>
+    <t>0.951+/-0.006</t>
+  </si>
+  <si>
+    <t>0.918+/-0.012</t>
+  </si>
+  <si>
+    <t>0.893</t>
+  </si>
+  <si>
+    <t>5.61+/-1.068</t>
+  </si>
+  <si>
+    <t>0.978+/-0.001</t>
+  </si>
+  <si>
+    <t>0.938+/-0.0</t>
+  </si>
+  <si>
+    <t>0.937</t>
+  </si>
+  <si>
+    <t>0.97+/-0.003</t>
+  </si>
+  <si>
+    <t>0.917+/-0.013</t>
+  </si>
+  <si>
+    <t>0.912</t>
+  </si>
+  <si>
+    <t>0.971+/-0.004</t>
+  </si>
+  <si>
+    <t>0.921+/-0.008</t>
+  </si>
+  <si>
+    <t>0.924</t>
+  </si>
+  <si>
+    <t>0.227+/-0.009</t>
+  </si>
+  <si>
+    <t>0.976+/-0.002</t>
+  </si>
+  <si>
+    <t>0.938</t>
+  </si>
+  <si>
+    <t>0.976+/-0.005</t>
+  </si>
+  <si>
+    <t>0.92+/-0.011</t>
+  </si>
+  <si>
+    <t>0.96+/-0.006</t>
+  </si>
+  <si>
+    <t>0.907+/-0.014</t>
+  </si>
+  <si>
+    <t>0.911</t>
+  </si>
+  <si>
+    <t>0.277+/-0.033</t>
+  </si>
+  <si>
+    <t>0.936+/-0.001</t>
+  </si>
+  <si>
+    <t>0.919+/-0.0</t>
+  </si>
+  <si>
+    <t>0.916</t>
+  </si>
+  <si>
+    <t>0.94+/-0.001</t>
+  </si>
+  <si>
+    <t>0.925+/-0.014</t>
+  </si>
+  <si>
+    <t>0.928</t>
+  </si>
+  <si>
+    <t>0.888+/-0.002</t>
+  </si>
+  <si>
+    <t>0.857+/-0.013</t>
+  </si>
+  <si>
+    <t>0.845</t>
+  </si>
+  <si>
+    <t>22.863+/-2.106</t>
+  </si>
+  <si>
+    <t>0.801+/-0.0</t>
+  </si>
+  <si>
+    <t>0.802</t>
+  </si>
+  <si>
+    <t>0.893+/-0.0</t>
+  </si>
+  <si>
+    <t>0.894</t>
+  </si>
+  <si>
+    <t>0.816+/-0.012</t>
+  </si>
+  <si>
+    <t>0.811</t>
+  </si>
+  <si>
+    <t>0.592+/-0.026</t>
+  </si>
+  <si>
+    <t>0.607</t>
   </si>
   <si>
     <t>0.003+/-0.0</t>
   </si>
   <si>
-    <t>0.908+/-0.001</t>
-  </si>
-  <si>
-    <t>0.906+/-0.0</t>
-  </si>
-  <si>
-    <t>0.903</t>
-  </si>
-  <si>
-    <t>0.907+/-0.001</t>
-  </si>
-  <si>
-    <t>0.904+/-0.011</t>
-  </si>
-  <si>
-    <t>0.895</t>
-  </si>
-  <si>
-    <t>0.847+/-0.002</t>
-  </si>
-  <si>
-    <t>0.844+/-0.022</t>
-  </si>
-  <si>
-    <t>0.844</t>
-  </si>
-  <si>
-    <t>0.494+/-0.04</t>
-  </si>
-  <si>
-    <t>0.661+/-0.021</t>
-  </si>
-  <si>
-    <t>0.66+/-0.0</t>
-  </si>
-  <si>
-    <t>0.662</t>
-  </si>
-  <si>
-    <t>0.534+/-0.019</t>
-  </si>
-  <si>
-    <t>0.534+/-0.021</t>
-  </si>
-  <si>
-    <t>0.534</t>
-  </si>
-  <si>
-    <t>0.875+/-0.003</t>
-  </si>
-  <si>
-    <t>0.874+/-0.019</t>
-  </si>
-  <si>
-    <t>0.876</t>
-  </si>
-  <si>
-    <t>0.008+/-0.001</t>
-  </si>
-  <si>
-    <t>0.873+/-0.001</t>
-  </si>
-  <si>
-    <t>0.873+/-0.0</t>
-  </si>
-  <si>
-    <t>0.872</t>
-  </si>
-  <si>
-    <t>0.831+/-0.001</t>
-  </si>
-  <si>
-    <t>0.831+/-0.006</t>
-  </si>
-  <si>
-    <t>0.831</t>
-  </si>
-  <si>
-    <t>0.837+/-0.003</t>
-  </si>
-  <si>
-    <t>0.837+/-0.016</t>
-  </si>
-  <si>
-    <t>0.834</t>
-  </si>
-  <si>
-    <t>0.01+/-0.001</t>
-  </si>
-  <si>
-    <t>0.959+/-0.003</t>
-  </si>
-  <si>
-    <t>0.935+/-0.0</t>
-  </si>
-  <si>
-    <t>0.931</t>
-  </si>
-  <si>
-    <t>0.952+/-0.008</t>
-  </si>
-  <si>
-    <t>0.92+/-0.014</t>
-  </si>
-  <si>
-    <t>0.921</t>
-  </si>
-  <si>
-    <t>0.941+/-0.009</t>
-  </si>
-  <si>
-    <t>0.909+/-0.011</t>
-  </si>
-  <si>
-    <t>3.365+/-0.603</t>
-  </si>
-  <si>
-    <t>0.978+/-0.001</t>
-  </si>
-  <si>
-    <t>0.938+/-0.0</t>
-  </si>
-  <si>
-    <t>0.939</t>
-  </si>
-  <si>
-    <t>0.97+/-0.003</t>
-  </si>
-  <si>
-    <t>0.917+/-0.013</t>
-  </si>
-  <si>
-    <t>0.91</t>
-  </si>
-  <si>
-    <t>0.972+/-0.004</t>
-  </si>
-  <si>
-    <t>0.92+/-0.008</t>
-  </si>
-  <si>
-    <t>0.175+/-0.011</t>
-  </si>
-  <si>
-    <t>0.976+/-0.002</t>
-  </si>
-  <si>
-    <t>0.933+/-0.0</t>
+    <t>0.972+/-0.001</t>
+  </si>
+  <si>
+    <t>0.971+/-0.0</t>
+  </si>
+  <si>
+    <t>0.971</t>
+  </si>
+  <si>
+    <t>0.941+/-0.001</t>
+  </si>
+  <si>
+    <t>0.94+/-0.012</t>
+  </si>
+  <si>
+    <t>0.948</t>
+  </si>
+  <si>
+    <t>0.916+/-0.002</t>
+  </si>
+  <si>
+    <t>0.913+/-0.026</t>
+  </si>
+  <si>
+    <t>0.904</t>
+  </si>
+  <si>
+    <t>0.37+/-0.054</t>
+  </si>
+  <si>
+    <t>0.881+/-0.008</t>
+  </si>
+  <si>
+    <t>0.878+/-0.0</t>
+  </si>
+  <si>
+    <t>0.889</t>
+  </si>
+  <si>
+    <t>0.703+/-0.014</t>
+  </si>
+  <si>
+    <t>0.698+/-0.034</t>
+  </si>
+  <si>
+    <t>0.728</t>
+  </si>
+  <si>
+    <t>0.692+/-0.047</t>
+  </si>
+  <si>
+    <t>0.683+/-0.066</t>
+  </si>
+  <si>
+    <t>0.705</t>
+  </si>
+  <si>
+    <t>0.762+/-0.002</t>
+  </si>
+  <si>
+    <t>0.761+/-0.0</t>
+  </si>
+  <si>
+    <t>0.758</t>
+  </si>
+  <si>
+    <t>0.378+/-0.003</t>
+  </si>
+  <si>
+    <t>0.378+/-0.02</t>
+  </si>
+  <si>
+    <t>0.364</t>
+  </si>
+  <si>
+    <t>0.311+/-0.012</t>
+  </si>
+  <si>
+    <t>0.313+/-0.026</t>
+  </si>
+  <si>
+    <t>0.295</t>
+  </si>
+  <si>
+    <t>0.01+/-0.0</t>
+  </si>
+  <si>
+    <t>0.981+/-0.005</t>
+  </si>
+  <si>
+    <t>0.976</t>
+  </si>
+  <si>
+    <t>0.955+/-0.019</t>
+  </si>
+  <si>
+    <t>0.931+/-0.031</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>0.951+/-0.026</t>
+  </si>
+  <si>
+    <t>0.922+/-0.031</t>
+  </si>
+  <si>
+    <t>0.927</t>
+  </si>
+  <si>
+    <t>6.158+/-1.84</t>
+  </si>
+  <si>
+    <t>0.996+/-0.001</t>
+  </si>
+  <si>
+    <t>0.98+/-0.0</t>
+  </si>
+  <si>
+    <t>0.981</t>
+  </si>
+  <si>
+    <t>0.988+/-0.003</t>
+  </si>
+  <si>
+    <t>0.947+/-0.016</t>
+  </si>
+  <si>
+    <t>0.963</t>
+  </si>
+  <si>
+    <t>0.991+/-0.002</t>
+  </si>
+  <si>
+    <t>0.951+/-0.016</t>
   </si>
   <si>
     <t>0.94</t>
   </si>
   <si>
-    <t>0.977+/-0.004</t>
-  </si>
-  <si>
-    <t>0.919+/-0.013</t>
-  </si>
-  <si>
-    <t>0.927</t>
-  </si>
-  <si>
-    <t>0.96+/-0.005</t>
-  </si>
-  <si>
-    <t>0.905+/-0.015</t>
-  </si>
-  <si>
-    <t>0.915</t>
-  </si>
-  <si>
-    <t>0.194+/-0.009</t>
-  </si>
-  <si>
-    <t>0.936+/-0.001</t>
-  </si>
-  <si>
-    <t>0.92+/-0.0</t>
-  </si>
-  <si>
-    <t>0.914</t>
-  </si>
-  <si>
-    <t>0.941+/-0.001</t>
-  </si>
-  <si>
-    <t>0.927+/-0.013</t>
-  </si>
-  <si>
-    <t>0.925</t>
-  </si>
-  <si>
-    <t>0.887+/-0.002</t>
-  </si>
-  <si>
-    <t>0.857+/-0.012</t>
-  </si>
-  <si>
-    <t>0.843</t>
-  </si>
-  <si>
-    <t>14.503+/-0.326</t>
-  </si>
-  <si>
-    <t>0.801+/-0.0</t>
-  </si>
-  <si>
-    <t>0.802</t>
-  </si>
-  <si>
-    <t>0.89+/-0.0</t>
-  </si>
-  <si>
-    <t>0.892</t>
-  </si>
-  <si>
-    <t>0.82+/-0.02</t>
-  </si>
-  <si>
-    <t>0.818</t>
-  </si>
-  <si>
-    <t>0.574+/-0.029</t>
-  </si>
-  <si>
-    <t>0.587</t>
-  </si>
-  <si>
-    <t>0.002+/-0.0</t>
-  </si>
-  <si>
-    <t>0.972+/-0.001</t>
-  </si>
-  <si>
-    <t>0.971+/-0.0</t>
-  </si>
-  <si>
-    <t>0.97</t>
-  </si>
-  <si>
-    <t>0.942+/-0.001</t>
-  </si>
-  <si>
-    <t>0.941+/-0.012</t>
-  </si>
-  <si>
-    <t>0.945</t>
-  </si>
-  <si>
-    <t>0.915+/-0.003</t>
-  </si>
-  <si>
-    <t>0.91+/-0.027</t>
-  </si>
-  <si>
-    <t>0.325+/-0.033</t>
-  </si>
-  <si>
-    <t>0.884+/-0.005</t>
-  </si>
-  <si>
-    <t>0.882+/-0.0</t>
-  </si>
-  <si>
-    <t>0.897</t>
-  </si>
-  <si>
-    <t>0.694+/-0.01</t>
-  </si>
-  <si>
-    <t>0.69+/-0.028</t>
-  </si>
-  <si>
-    <t>0.722</t>
-  </si>
-  <si>
-    <t>0.746+/-0.034</t>
-  </si>
-  <si>
-    <t>0.737+/-0.052</t>
-  </si>
-  <si>
-    <t>0.784</t>
-  </si>
-  <si>
-    <t>0.008+/-0.0</t>
-  </si>
-  <si>
-    <t>0.758+/-0.002</t>
-  </si>
-  <si>
-    <t>0.758+/-0.0</t>
-  </si>
-  <si>
-    <t>0.758</t>
-  </si>
-  <si>
-    <t>0.372+/-0.003</t>
-  </si>
-  <si>
-    <t>0.37+/-0.02</t>
-  </si>
-  <si>
-    <t>0.367</t>
-  </si>
-  <si>
-    <t>0.315+/-0.011</t>
-  </si>
-  <si>
-    <t>0.313+/-0.027</t>
-  </si>
-  <si>
-    <t>0.304</t>
-  </si>
-  <si>
-    <t>0.009+/-0.0</t>
-  </si>
-  <si>
-    <t>0.983+/-0.002</t>
-  </si>
-  <si>
-    <t>0.978</t>
-  </si>
-  <si>
-    <t>0.956+/-0.01</t>
-  </si>
-  <si>
-    <t>0.931+/-0.016</t>
-  </si>
-  <si>
-    <t>0.954</t>
-  </si>
-  <si>
-    <t>0.957+/-0.013</t>
-  </si>
-  <si>
-    <t>0.924+/-0.018</t>
-  </si>
-  <si>
-    <t>0.936</t>
-  </si>
-  <si>
-    <t>2.885+/-0.592</t>
-  </si>
-  <si>
-    <t>0.996+/-0.0</t>
-  </si>
-  <si>
-    <t>0.98+/-0.0</t>
-  </si>
-  <si>
-    <t>0.982</t>
-  </si>
-  <si>
-    <t>0.988+/-0.002</t>
-  </si>
-  <si>
-    <t>0.948+/-0.018</t>
-  </si>
-  <si>
-    <t>0.991+/-0.001</t>
-  </si>
-  <si>
-    <t>0.951+/-0.014</t>
-  </si>
-  <si>
-    <t>0.953</t>
-  </si>
-  <si>
-    <t>0.152+/-0.02</t>
+    <t>0.181+/-0.023</t>
   </si>
   <si>
     <t>0.997+/-0.001</t>
   </si>
   <si>
-    <t>0.977</t>
-  </si>
-  <si>
     <t>0.992+/-0.003</t>
   </si>
   <si>
-    <t>0.946+/-0.01</t>
-  </si>
-  <si>
-    <t>0.995+/-0.001</t>
-  </si>
-  <si>
-    <t>0.954+/-0.012</t>
-  </si>
-  <si>
-    <t>0.944</t>
-  </si>
-  <si>
-    <t>0.147+/-0.017</t>
-  </si>
-  <si>
-    <t>0.974+/-0.001</t>
+    <t>0.947+/-0.014</t>
+  </si>
+  <si>
+    <t>0.949</t>
+  </si>
+  <si>
+    <t>0.995+/-0.002</t>
+  </si>
+  <si>
+    <t>0.952+/-0.014</t>
+  </si>
+  <si>
+    <t>0.955</t>
+  </si>
+  <si>
+    <t>0.195+/-0.01</t>
+  </si>
+  <si>
+    <t>0.976+/-0.001</t>
   </si>
   <si>
     <t>0.961+/-0.0</t>
   </si>
   <si>
-    <t>0.968</t>
-  </si>
-  <si>
-    <t>0.959+/-0.002</t>
-  </si>
-  <si>
-    <t>0.941+/-0.016</t>
-  </si>
-  <si>
-    <t>0.966</t>
-  </si>
-  <si>
-    <t>0.91+/-0.003</t>
-  </si>
-  <si>
-    <t>0.856+/-0.016</t>
-  </si>
-  <si>
-    <t>0.867</t>
-  </si>
-  <si>
-    <t>11.472+/-1.182</t>
+    <t>0.967</t>
+  </si>
+  <si>
+    <t>0.96+/-0.003</t>
+  </si>
+  <si>
+    <t>0.965</t>
+  </si>
+  <si>
+    <t>0.915+/-0.002</t>
+  </si>
+  <si>
+    <t>0.861+/-0.014</t>
+  </si>
+  <si>
+    <t>0.864</t>
+  </si>
+  <si>
+    <t>14.614+/-1.438</t>
   </si>
 </sst>
 </file>
@@ -949,16 +943,16 @@
         <v>52</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I2" t="s">
         <v>80</v>
       </c>
       <c r="J2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -981,16 +975,16 @@
         <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1013,16 +1007,16 @@
         <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1045,16 +1039,16 @@
         <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1077,16 +1071,16 @@
         <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1109,16 +1103,16 @@
         <v>57</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1141,16 +1135,16 @@
         <v>58</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1173,16 +1167,16 @@
         <v>59</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1202,19 +1196,19 @@
         <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1234,19 +1228,19 @@
         <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H11" t="s">
         <v>79</v>
       </c>
       <c r="I11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1296,31 +1290,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1328,31 +1322,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s">
         <v>100</v>
       </c>
-      <c r="C3" t="s">
-        <v>102</v>
-      </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1360,31 +1354,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
         <v>101</v>
       </c>
-      <c r="C4" t="s">
-        <v>103</v>
-      </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I4" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="J4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1398,25 +1392,25 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1427,28 +1421,28 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J6" t="s">
-        <v>168</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1459,28 +1453,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H7" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="J7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1494,25 +1488,25 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1523,28 +1517,28 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1555,28 +1549,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="E10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1584,31 +1578,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E11" t="s">
-        <v>127</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
